--- a/DailyPricingAutomationTest/Testcases/i2o_TestReport_Jvc.xlsx
+++ b/DailyPricingAutomationTest/Testcases/i2o_TestReport_Jvc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\SeleniumWorkSpace\DailyPricingAutomationTest\Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_Dailyfeed\DailyPricingAutomationTest\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E4386C-5FC1-4F73-A417-BE001E07D82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475638F6-B1BC-4B63-B0CB-4EE1F6495B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestModules" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="121">
   <si>
     <t>Execution status</t>
   </si>
@@ -342,16 +342,76 @@
     <t>Test Name</t>
   </si>
   <si>
-    <t>07/19/2020 02:27:29</t>
-  </si>
-  <si>
-    <t>07/19/2020 03:02:04</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>07/22/2020 21:06:05</t>
+  </si>
+  <si>
+    <t>B003AIL2H4</t>
+  </si>
+  <si>
+    <t>B003AIL2HO</t>
+  </si>
+  <si>
+    <t>B004HIN97M</t>
+  </si>
+  <si>
+    <t>B004HIN9WC</t>
+  </si>
+  <si>
+    <t>B004JRYLG4</t>
+  </si>
+  <si>
+    <t>Amazon.com</t>
+  </si>
+  <si>
+    <t>7.99</t>
+  </si>
+  <si>
+    <t>6.78</t>
+  </si>
+  <si>
+    <t>9.95</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>07/22/2020 21:09:36</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1226,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,10 +1254,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1205,10 +1265,10 @@
         <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1229,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A442BAA9-67E2-4E52-8465-0D9BB30FFCEC}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,11 +1349,19 @@
       <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
       <c r="H2"/>
-      <c r="I2"/>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1308,11 +1376,19 @@
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
       <c r="H3"/>
-      <c r="I3"/>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
@@ -1327,11 +1403,19 @@
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1346,11 +1430,19 @@
       <c r="D5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
       <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1365,11 +1457,19 @@
       <c r="D6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
       <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -1384,11 +1484,19 @@
       <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
       <c r="H7"/>
-      <c r="I7"/>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1404,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D8EF67-462A-4E5D-A512-4E2A231438FF}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I101"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,9 +1574,13 @@
       </c>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2"/>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
       <c r="H2"/>
-      <c r="I2"/>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1477,9 +1589,13 @@
       <c r="D3" s="3"/>
       <c r="E3"/>
       <c r="F3"/>
-      <c r="G3"/>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
       <c r="H3"/>
-      <c r="I3"/>
+      <c r="I3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
@@ -1488,9 +1604,13 @@
       <c r="D4" s="3"/>
       <c r="E4"/>
       <c r="F4"/>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1499,9 +1619,13 @@
       <c r="D5" s="3"/>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
       <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1510,9 +1634,13 @@
       <c r="D6" s="3"/>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
       <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -1529,9 +1657,13 @@
       </c>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="G7"/>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
       <c r="H7"/>
-      <c r="I7"/>
+      <c r="I7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1540,9 +1672,13 @@
       <c r="D8" s="3"/>
       <c r="E8"/>
       <c r="F8"/>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
       <c r="H8"/>
-      <c r="I8"/>
+      <c r="I8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1551,9 +1687,13 @@
       <c r="D9" s="3"/>
       <c r="E9"/>
       <c r="F9"/>
-      <c r="G9"/>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
       <c r="H9"/>
-      <c r="I9"/>
+      <c r="I9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1562,9 +1702,13 @@
       <c r="D10" s="3"/>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10"/>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
       <c r="H10"/>
-      <c r="I10"/>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -1573,9 +1717,13 @@
       <c r="D11" s="3"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11"/>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
       <c r="H11"/>
-      <c r="I11"/>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1592,9 +1740,13 @@
       </c>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12"/>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
       <c r="H12"/>
-      <c r="I12"/>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1603,9 +1755,13 @@
       <c r="D13" s="3"/>
       <c r="E13"/>
       <c r="F13"/>
-      <c r="G13"/>
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
       <c r="H13"/>
-      <c r="I13"/>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1614,9 +1770,13 @@
       <c r="D14" s="3"/>
       <c r="E14"/>
       <c r="F14"/>
-      <c r="G14"/>
+      <c r="G14" t="s">
+        <v>113</v>
+      </c>
       <c r="H14"/>
-      <c r="I14"/>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1625,9 +1785,13 @@
       <c r="D15" s="3"/>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15"/>
+      <c r="G15" t="s">
+        <v>114</v>
+      </c>
       <c r="H15"/>
-      <c r="I15"/>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1636,9 +1800,13 @@
       <c r="D16" s="3"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16"/>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
       <c r="H16"/>
-      <c r="I16"/>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1655,9 +1823,13 @@
       </c>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17"/>
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
       <c r="H17"/>
-      <c r="I17"/>
+      <c r="I17" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1666,9 +1838,13 @@
       <c r="D18" s="3"/>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18"/>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
       <c r="H18"/>
-      <c r="I18"/>
+      <c r="I18" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
@@ -1677,9 +1853,13 @@
       <c r="D19" s="3"/>
       <c r="E19"/>
       <c r="F19"/>
-      <c r="G19"/>
+      <c r="G19" t="s">
+        <v>115</v>
+      </c>
       <c r="H19"/>
-      <c r="I19"/>
+      <c r="I19" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
@@ -1688,9 +1868,13 @@
       <c r="D20" s="3"/>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="G20"/>
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
       <c r="H20"/>
-      <c r="I20"/>
+      <c r="I20" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1699,9 +1883,13 @@
       <c r="D21" s="3"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21"/>
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
       <c r="H21"/>
-      <c r="I21"/>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="22" spans="1:9" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1718,9 +1906,13 @@
       </c>
       <c r="E22"/>
       <c r="F22"/>
-      <c r="G22"/>
+      <c r="G22" t="s">
+        <v>111</v>
+      </c>
       <c r="H22"/>
-      <c r="I22"/>
+      <c r="I22" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
@@ -1729,9 +1921,13 @@
       <c r="D23" s="3"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23"/>
+      <c r="G23" t="s">
+        <v>111</v>
+      </c>
       <c r="H23"/>
-      <c r="I23"/>
+      <c r="I23" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
@@ -1740,9 +1936,13 @@
       <c r="D24" s="3"/>
       <c r="E24"/>
       <c r="F24"/>
-      <c r="G24"/>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
       <c r="H24"/>
-      <c r="I24"/>
+      <c r="I24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1751,9 +1951,13 @@
       <c r="D25" s="3"/>
       <c r="E25"/>
       <c r="F25"/>
-      <c r="G25"/>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
       <c r="H25"/>
-      <c r="I25"/>
+      <c r="I25" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1762,9 +1966,13 @@
       <c r="D26" s="3"/>
       <c r="E26"/>
       <c r="F26"/>
-      <c r="G26"/>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
       <c r="H26"/>
-      <c r="I26"/>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" spans="1:9" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -1781,9 +1989,13 @@
       </c>
       <c r="E27"/>
       <c r="F27"/>
-      <c r="G27"/>
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
       <c r="H27"/>
-      <c r="I27"/>
+      <c r="I27" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -1792,9 +2004,13 @@
       <c r="D28" s="3"/>
       <c r="E28"/>
       <c r="F28"/>
-      <c r="G28"/>
+      <c r="G28" t="s">
+        <v>111</v>
+      </c>
       <c r="H28"/>
-      <c r="I28"/>
+      <c r="I28" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1803,9 +2019,13 @@
       <c r="D29" s="3"/>
       <c r="E29"/>
       <c r="F29"/>
-      <c r="G29"/>
+      <c r="G29" t="s">
+        <v>111</v>
+      </c>
       <c r="H29"/>
-      <c r="I29"/>
+      <c r="I29" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1814,9 +2034,13 @@
       <c r="D30" s="3"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30"/>
+      <c r="G30" t="s">
+        <v>111</v>
+      </c>
       <c r="H30"/>
-      <c r="I30"/>
+      <c r="I30" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
@@ -1825,9 +2049,13 @@
       <c r="D31" s="3"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31"/>
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
       <c r="H31"/>
-      <c r="I31"/>
+      <c r="I31" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="32" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
@@ -1844,9 +2072,13 @@
       </c>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32"/>
+      <c r="G32" t="s">
+        <v>116</v>
+      </c>
       <c r="H32"/>
-      <c r="I32"/>
+      <c r="I32" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1855,9 +2087,13 @@
       <c r="D33" s="3"/>
       <c r="E33"/>
       <c r="F33"/>
-      <c r="G33"/>
+      <c r="G33" t="s">
+        <v>116</v>
+      </c>
       <c r="H33"/>
-      <c r="I33"/>
+      <c r="I33" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1866,9 +2102,13 @@
       <c r="D34" s="3"/>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34"/>
+      <c r="G34" t="s">
+        <v>115</v>
+      </c>
       <c r="H34"/>
-      <c r="I34"/>
+      <c r="I34" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -1877,9 +2117,13 @@
       <c r="D35" s="3"/>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35"/>
+      <c r="G35" t="s">
+        <v>117</v>
+      </c>
       <c r="H35"/>
-      <c r="I35"/>
+      <c r="I35" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
@@ -1888,9 +2132,13 @@
       <c r="D36" s="3"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36"/>
+      <c r="G36" t="s">
+        <v>116</v>
+      </c>
       <c r="H36"/>
-      <c r="I36"/>
+      <c r="I36" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="37" spans="1:9" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1907,9 +2155,13 @@
       </c>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37"/>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
       <c r="H37"/>
-      <c r="I37"/>
+      <c r="I37" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1918,9 +2170,13 @@
       <c r="D38" s="3"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38"/>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
       <c r="H38"/>
-      <c r="I38"/>
+      <c r="I38" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
@@ -1929,9 +2185,13 @@
       <c r="D39" s="3"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39"/>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
       <c r="H39"/>
-      <c r="I39"/>
+      <c r="I39" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
@@ -1940,9 +2200,13 @@
       <c r="D40" s="3"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40"/>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
       <c r="H40"/>
-      <c r="I40"/>
+      <c r="I40" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1951,9 +2215,13 @@
       <c r="D41" s="3"/>
       <c r="E41"/>
       <c r="F41"/>
-      <c r="G41"/>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
       <c r="H41"/>
-      <c r="I41"/>
+      <c r="I41" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1970,9 +2238,13 @@
       </c>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42"/>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
       <c r="H42"/>
-      <c r="I42"/>
+      <c r="I42" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
@@ -1981,9 +2253,13 @@
       <c r="D43" s="3"/>
       <c r="E43"/>
       <c r="F43"/>
-      <c r="G43"/>
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
       <c r="H43"/>
-      <c r="I43"/>
+      <c r="I43" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
@@ -1992,9 +2268,13 @@
       <c r="D44" s="3"/>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="G44"/>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
       <c r="H44"/>
-      <c r="I44"/>
+      <c r="I44" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -2003,9 +2283,13 @@
       <c r="D45" s="3"/>
       <c r="E45"/>
       <c r="F45"/>
-      <c r="G45"/>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45"/>
-      <c r="I45"/>
+      <c r="I45" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2016,9 +2300,13 @@
       <c r="D46" s="3"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46"/>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
       <c r="H46"/>
-      <c r="I46"/>
+      <c r="I46" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
@@ -2035,9 +2323,13 @@
       </c>
       <c r="E47"/>
       <c r="F47"/>
-      <c r="G47"/>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
       <c r="H47"/>
-      <c r="I47"/>
+      <c r="I47" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="48" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
@@ -2046,9 +2338,13 @@
       <c r="D48" s="3"/>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="G48"/>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
       <c r="H48"/>
-      <c r="I48"/>
+      <c r="I48" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="49" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2057,9 +2353,13 @@
       <c r="D49" s="3"/>
       <c r="E49"/>
       <c r="F49"/>
-      <c r="G49"/>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49"/>
-      <c r="I49"/>
+      <c r="I49" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="50" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -2068,9 +2368,13 @@
       <c r="D50" s="3"/>
       <c r="E50"/>
       <c r="F50"/>
-      <c r="G50"/>
+      <c r="G50" t="s">
+        <v>118</v>
+      </c>
       <c r="H50"/>
-      <c r="I50"/>
+      <c r="I50" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="51" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
@@ -2079,9 +2383,13 @@
       <c r="D51" s="3"/>
       <c r="E51"/>
       <c r="F51"/>
-      <c r="G51"/>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
       <c r="H51"/>
-      <c r="I51"/>
+      <c r="I51" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="52" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
@@ -2098,9 +2406,13 @@
       </c>
       <c r="E52"/>
       <c r="F52"/>
-      <c r="G52"/>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
       <c r="H52"/>
-      <c r="I52"/>
+      <c r="I52" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="53" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -2109,9 +2421,13 @@
       <c r="D53" s="3"/>
       <c r="E53"/>
       <c r="F53"/>
-      <c r="G53"/>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
       <c r="H53"/>
-      <c r="I53"/>
+      <c r="I53" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -2120,9 +2436,13 @@
       <c r="D54" s="3"/>
       <c r="E54"/>
       <c r="F54"/>
-      <c r="G54"/>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54"/>
-      <c r="I54"/>
+      <c r="I54" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
@@ -2131,9 +2451,13 @@
       <c r="D55" s="3"/>
       <c r="E55"/>
       <c r="F55"/>
-      <c r="G55"/>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
       <c r="H55"/>
-      <c r="I55"/>
+      <c r="I55" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
@@ -2144,9 +2468,13 @@
       <c r="D56" s="3"/>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="G56"/>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
       <c r="H56"/>
-      <c r="I56"/>
+      <c r="I56" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="57" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -2163,9 +2491,13 @@
       </c>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="G57"/>
+      <c r="G57" t="s">
+        <v>2</v>
+      </c>
       <c r="H57"/>
-      <c r="I57"/>
+      <c r="I57" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -2176,9 +2508,13 @@
       <c r="D58" s="3"/>
       <c r="E58"/>
       <c r="F58"/>
-      <c r="G58"/>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
       <c r="H58"/>
-      <c r="I58"/>
+      <c r="I58" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
@@ -2189,9 +2525,13 @@
       <c r="D59" s="3"/>
       <c r="E59"/>
       <c r="F59"/>
-      <c r="G59"/>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
       <c r="H59"/>
-      <c r="I59"/>
+      <c r="I59" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
@@ -2202,9 +2542,13 @@
       <c r="D60" s="3"/>
       <c r="E60"/>
       <c r="F60"/>
-      <c r="G60"/>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
       <c r="H60"/>
-      <c r="I60"/>
+      <c r="I60" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -2215,9 +2559,13 @@
       <c r="D61" s="3"/>
       <c r="E61"/>
       <c r="F61"/>
-      <c r="G61"/>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
       <c r="H61"/>
-      <c r="I61"/>
+      <c r="I61" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="62" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2234,9 +2582,13 @@
       </c>
       <c r="E62"/>
       <c r="F62"/>
-      <c r="G62"/>
+      <c r="G62" t="s">
+        <v>111</v>
+      </c>
       <c r="H62"/>
-      <c r="I62"/>
+      <c r="I62" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
@@ -2245,9 +2597,13 @@
       <c r="D63" s="3"/>
       <c r="E63"/>
       <c r="F63"/>
-      <c r="G63"/>
+      <c r="G63" t="s">
+        <v>112</v>
+      </c>
       <c r="H63"/>
-      <c r="I63"/>
+      <c r="I63" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
@@ -2256,9 +2612,13 @@
       <c r="D64" s="3"/>
       <c r="E64"/>
       <c r="F64"/>
-      <c r="G64"/>
+      <c r="G64" t="s">
+        <v>113</v>
+      </c>
       <c r="H64"/>
-      <c r="I64"/>
+      <c r="I64" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -2267,9 +2627,13 @@
       <c r="D65" s="3"/>
       <c r="E65"/>
       <c r="F65"/>
-      <c r="G65"/>
+      <c r="G65" t="s">
+        <v>114</v>
+      </c>
       <c r="H65"/>
-      <c r="I65"/>
+      <c r="I65" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -2278,9 +2642,13 @@
       <c r="D66" s="3"/>
       <c r="E66"/>
       <c r="F66"/>
-      <c r="G66"/>
+      <c r="G66" t="s">
+        <v>111</v>
+      </c>
       <c r="H66"/>
-      <c r="I66"/>
+      <c r="I66" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="67" spans="1:9" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
@@ -2297,9 +2665,13 @@
       </c>
       <c r="E67"/>
       <c r="F67"/>
-      <c r="G67"/>
+      <c r="G67" t="s">
+        <v>111</v>
+      </c>
       <c r="H67"/>
-      <c r="I67"/>
+      <c r="I67" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="68" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
@@ -2308,9 +2680,13 @@
       <c r="D68" s="3"/>
       <c r="E68"/>
       <c r="F68"/>
-      <c r="G68"/>
+      <c r="G68" t="s">
+        <v>111</v>
+      </c>
       <c r="H68"/>
-      <c r="I68"/>
+      <c r="I68" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="69" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -2319,9 +2695,13 @@
       <c r="D69" s="3"/>
       <c r="E69"/>
       <c r="F69"/>
-      <c r="G69"/>
+      <c r="G69" t="s">
+        <v>115</v>
+      </c>
       <c r="H69"/>
-      <c r="I69"/>
+      <c r="I69" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="70" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -2330,9 +2710,13 @@
       <c r="D70" s="3"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="G70"/>
+      <c r="G70" t="s">
+        <v>111</v>
+      </c>
       <c r="H70"/>
-      <c r="I70"/>
+      <c r="I70" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="71" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
@@ -2341,9 +2725,13 @@
       <c r="D71" s="3"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="G71"/>
+      <c r="G71" t="s">
+        <v>111</v>
+      </c>
       <c r="H71"/>
-      <c r="I71"/>
+      <c r="I71" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="72" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
@@ -2360,9 +2748,13 @@
       </c>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72"/>
+      <c r="G72" t="s">
+        <v>111</v>
+      </c>
       <c r="H72"/>
-      <c r="I72"/>
+      <c r="I72" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -2371,9 +2763,13 @@
       <c r="D73" s="3"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="G73"/>
+      <c r="G73" t="s">
+        <v>111</v>
+      </c>
       <c r="H73"/>
-      <c r="I73"/>
+      <c r="I73" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="74" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -2382,9 +2778,13 @@
       <c r="D74" s="3"/>
       <c r="E74"/>
       <c r="F74"/>
-      <c r="G74"/>
+      <c r="G74" t="s">
+        <v>111</v>
+      </c>
       <c r="H74"/>
-      <c r="I74"/>
+      <c r="I74" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="75" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
@@ -2393,9 +2793,13 @@
       <c r="D75" s="3"/>
       <c r="E75"/>
       <c r="F75"/>
-      <c r="G75"/>
+      <c r="G75" t="s">
+        <v>111</v>
+      </c>
       <c r="H75"/>
-      <c r="I75"/>
+      <c r="I75" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="76" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
@@ -2404,9 +2808,13 @@
       <c r="D76" s="3"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76"/>
+      <c r="G76" t="s">
+        <v>111</v>
+      </c>
       <c r="H76"/>
-      <c r="I76"/>
+      <c r="I76" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="77" spans="1:9" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -2423,9 +2831,13 @@
       </c>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77"/>
+      <c r="G77" t="s">
+        <v>111</v>
+      </c>
       <c r="H77"/>
-      <c r="I77"/>
+      <c r="I77" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="78" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -2434,9 +2846,13 @@
       <c r="D78" s="3"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78"/>
+      <c r="G78" t="s">
+        <v>111</v>
+      </c>
       <c r="H78"/>
-      <c r="I78"/>
+      <c r="I78" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="79" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
@@ -2445,9 +2861,13 @@
       <c r="D79" s="3"/>
       <c r="E79"/>
       <c r="F79"/>
-      <c r="G79"/>
+      <c r="G79" t="s">
+        <v>111</v>
+      </c>
       <c r="H79"/>
-      <c r="I79"/>
+      <c r="I79" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="80" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
@@ -2456,9 +2876,13 @@
       <c r="D80" s="3"/>
       <c r="E80"/>
       <c r="F80"/>
-      <c r="G80"/>
+      <c r="G80" t="s">
+        <v>111</v>
+      </c>
       <c r="H80"/>
-      <c r="I80"/>
+      <c r="I80" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="81" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -2467,9 +2891,13 @@
       <c r="D81" s="3"/>
       <c r="E81"/>
       <c r="F81"/>
-      <c r="G81"/>
+      <c r="G81" t="s">
+        <v>111</v>
+      </c>
       <c r="H81"/>
-      <c r="I81"/>
+      <c r="I81" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="82" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2486,9 +2914,13 @@
       </c>
       <c r="E82"/>
       <c r="F82"/>
-      <c r="G82"/>
+      <c r="G82" t="s">
+        <v>116</v>
+      </c>
       <c r="H82"/>
-      <c r="I82"/>
+      <c r="I82" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="83" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
@@ -2497,9 +2929,13 @@
       <c r="D83" s="3"/>
       <c r="E83"/>
       <c r="F83"/>
-      <c r="G83"/>
+      <c r="G83" t="s">
+        <v>116</v>
+      </c>
       <c r="H83"/>
-      <c r="I83"/>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="84" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
@@ -2508,9 +2944,13 @@
       <c r="D84" s="3"/>
       <c r="E84"/>
       <c r="F84"/>
-      <c r="G84"/>
+      <c r="G84" t="s">
+        <v>115</v>
+      </c>
       <c r="H84"/>
-      <c r="I84"/>
+      <c r="I84" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="85" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -2519,9 +2959,13 @@
       <c r="D85" s="3"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85"/>
+      <c r="G85" t="s">
+        <v>117</v>
+      </c>
       <c r="H85"/>
-      <c r="I85"/>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="86" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -2530,9 +2974,13 @@
       <c r="D86" s="3"/>
       <c r="E86"/>
       <c r="F86"/>
-      <c r="G86"/>
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
       <c r="H86"/>
-      <c r="I86"/>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="87" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
@@ -2549,9 +2997,13 @@
       </c>
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87"/>
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
       <c r="H87"/>
-      <c r="I87"/>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="88" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
@@ -2560,9 +3012,13 @@
       <c r="D88" s="3"/>
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88"/>
+      <c r="G88" t="s">
+        <v>116</v>
+      </c>
       <c r="H88"/>
-      <c r="I88"/>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="89" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -2571,9 +3027,13 @@
       <c r="D89" s="3"/>
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89"/>
+      <c r="G89" t="s">
+        <v>115</v>
+      </c>
       <c r="H89"/>
-      <c r="I89"/>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="90" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -2582,9 +3042,13 @@
       <c r="D90" s="3"/>
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90"/>
+      <c r="G90" t="s">
+        <v>117</v>
+      </c>
       <c r="H90"/>
-      <c r="I90"/>
+      <c r="I90" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="91" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
@@ -2593,9 +3057,13 @@
       <c r="D91" s="3"/>
       <c r="E91"/>
       <c r="F91"/>
-      <c r="G91"/>
+      <c r="G91" t="s">
+        <v>116</v>
+      </c>
       <c r="H91"/>
-      <c r="I91"/>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="92" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
@@ -2610,11 +3078,21 @@
       <c r="D92" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
+      <c r="E92" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="93" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -2623,11 +3101,21 @@
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
+      <c r="E93" t="s">
+        <v>103</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="94" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -2636,11 +3124,21 @@
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
+      <c r="E94" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="95" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
@@ -2649,11 +3147,21 @@
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
+      <c r="E95" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="96" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
@@ -2662,11 +3170,21 @@
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
+      <c r="E96" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="97" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -2681,11 +3199,21 @@
       <c r="D97" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
+      <c r="E97" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="98" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -2694,11 +3222,21 @@
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
+      <c r="E98" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="99" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
@@ -2707,11 +3245,21 @@
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
+      <c r="E99" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="100" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
@@ -2720,11 +3268,21 @@
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
+      <c r="E100" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="101" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2733,11 +3291,21 @@
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
+      <c r="E101" t="s">
+        <v>106</v>
+      </c>
+      <c r="F101" t="s">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
